--- a/Best_Exchange_Rate.xlsx
+++ b/Best_Exchange_Rate.xlsx
@@ -422,7 +422,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>0.85</x:v>
+        <x:v>0.8523</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>5</x:v>
@@ -436,7 +436,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>1.5121</x:v>
+        <x:v>1.5101</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>5</x:v>
@@ -450,7 +450,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>0.17105</x:v>
+        <x:v>0.17145</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>5</x:v>
@@ -464,7 +464,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
-        <x:v>0.009362</x:v>
+        <x:v>0.00938</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>5</x:v>
@@ -478,7 +478,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
-        <x:v>1.3243</x:v>
+        <x:v>1.3253</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
         <x:v>5</x:v>

--- a/Best_Exchange_Rate.xlsx
+++ b/Best_Exchange_Rate.xlsx
@@ -422,7 +422,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>0.8523</x:v>
+        <x:v>0.8568</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>5</x:v>
@@ -436,7 +436,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>1.5101</x:v>
+        <x:v>1.5112</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>5</x:v>
@@ -464,7 +464,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
-        <x:v>0.00938</x:v>
+        <x:v>0.00934</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>5</x:v>
@@ -478,7 +478,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
-        <x:v>1.3253</x:v>
+        <x:v>1.3249</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
         <x:v>5</x:v>
